--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260939.0732080097</v>
+        <v>258515.4666606682</v>
       </c>
     </row>
     <row r="7">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>154.6154217343488</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>83.7366493872467</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.6900639349596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>300.737226332423</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>16.83383878720033</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.46084344268529</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>29.33480686836257</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>91.35655199877063</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>70.57202340189598</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>135.8126782397854</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>29.80972179235323</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.5076486447244</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>58.28185552386401</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>85.67453763416935</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>65.31126771337313</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>6.847327801089932</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>278.7019488598344</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>80.90831282609496</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>9.146142788179834</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.6920487814951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.69211367164871</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>135.0353110735031</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>22.65115569188789</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>65.78783178799314</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>608.1639394762502</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>3067.415888200504</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W2" t="n">
-        <v>3067.415888200504</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>2763.640912107148</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y2" t="n">
-        <v>2373.501580131336</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.7957966773201</v>
+        <v>2952.271472605757</v>
       </c>
       <c r="C4" t="n">
-        <v>148.7957966773201</v>
+        <v>2952.271472605757</v>
       </c>
       <c r="D4" t="n">
-        <v>148.7957966773201</v>
+        <v>2802.154833193421</v>
       </c>
       <c r="E4" t="n">
-        <v>148.7957966773201</v>
+        <v>2785.150955630592</v>
       </c>
       <c r="F4" t="n">
-        <v>148.7957966773201</v>
+        <v>2785.150955630592</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>2617.448119005311</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="X4" t="n">
-        <v>148.7957966773201</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.7957966773201</v>
+        <v>3133.919937435996</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.76669086687</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.76669086687</v>
+        <v>1770.900666795624</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.500992260119</v>
+        <v>1412.634968188874</v>
       </c>
       <c r="E5" t="n">
-        <v>804.7127396618748</v>
+        <v>1026.846715590629</v>
       </c>
       <c r="F5" t="n">
-        <v>393.7268348722673</v>
+        <v>615.8608108010219</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>200.7883606460184</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>2139.863183736036</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529.0179941377679</v>
+        <v>603.0669976776956</v>
       </c>
       <c r="C7" t="n">
-        <v>529.0179941377679</v>
+        <v>434.1308147497887</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>284.0141753374529</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>783.7024823436548</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>783.7024823436548</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>783.7024823436548</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>529.0179941377679</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>529.0179941377679</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>529.0179941377679</v>
+        <v>603.0669976776956</v>
       </c>
       <c r="Y7" t="n">
-        <v>529.0179941377679</v>
+        <v>603.0669976776956</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.208919851716</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1549.246402911305</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.980704304554</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>805.1924517063098</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>394.2065469167023</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2362.804761797675</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915838</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879457</v>
+        <v>472.1048757766375</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600388</v>
+        <v>303.1686928487306</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477031</v>
+        <v>153.0520534363949</v>
       </c>
       <c r="E10" t="n">
-        <v>272.27262506531</v>
+        <v>153.0520534363949</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673996</v>
+        <v>153.0520534363949</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3826775673996</v>
+        <v>153.0520534363949</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>153.0520534363949</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181855</v>
+        <v>472.1048757766375</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,16 +5112,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5133,13 +5133,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1373.509837562355</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U13" t="n">
-        <v>1373.509837562355</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V13" t="n">
-        <v>1373.509837562355</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W13" t="n">
-        <v>1366.593344833982</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X13" t="n">
-        <v>1138.603793935964</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>159.7876405362276</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>120.6800663848328</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560535</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,31 +5525,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782979</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797769</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235168</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258109</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5738,43 +5738,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492579</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015259</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6491,10 +6491,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797189</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6953,10 +6953,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7433,25 +7433,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7561,10 +7561,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7603,7 +7603,7 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
         <v>1202.091371290588</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
   </sheetData>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.1393963544647</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.0621945351753</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>114.5207124685642</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462286</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016427</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>279.6756705355011</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516635</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>7.482525529409713</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>205.614685510496</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-3.466618432293617e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.89260457059967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>30.48882721876578</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856336</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462197</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>80.64613085857603</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001515.654948922</v>
+        <v>1001515.654948921</v>
       </c>
     </row>
     <row r="3">
@@ -26314,13 +26314,13 @@
         <v>346678.4959438572</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389278</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>352455.4604185485</v>
+        <v>352455.4604185488</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
@@ -26329,31 +26329,31 @@
         <v>363215.9698605026</v>
       </c>
       <c r="H2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="I2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="J2" t="n">
         <v>363215.9698605027</v>
       </c>
-      <c r="I2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605029</v>
-      </c>
       <c r="K2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="M2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="N2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605025</v>
       </c>
-      <c r="L2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64690.18151540504</v>
+        <v>64690.18151540475</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26451,13 +26451,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
+        <v>15436.64000687963</v>
+      </c>
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154690.371860534</v>
+        <v>-1154816.984641062</v>
       </c>
       <c r="C6" t="n">
-        <v>167938.1117734818</v>
+        <v>167938.1117734816</v>
       </c>
       <c r="D6" t="n">
-        <v>167938.111773482</v>
+        <v>167938.1117734817</v>
       </c>
       <c r="E6" t="n">
-        <v>-74840.91942139697</v>
+        <v>-74935.4379548439</v>
       </c>
       <c r="F6" t="n">
-        <v>246656.8000297158</v>
+        <v>246622.0621042801</v>
       </c>
       <c r="G6" t="n">
-        <v>246656.8000297158</v>
+        <v>246622.0621042801</v>
       </c>
       <c r="H6" t="n">
-        <v>246656.8000297157</v>
+        <v>246622.0621042803</v>
       </c>
       <c r="I6" t="n">
-        <v>246656.8000297159</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="J6" t="n">
-        <v>29125.5976324386</v>
+        <v>29090.85970700272</v>
       </c>
       <c r="K6" t="n">
-        <v>246656.8000297157</v>
+        <v>246622.0621042803</v>
       </c>
       <c r="L6" t="n">
-        <v>246656.800029716</v>
+        <v>246622.0621042803</v>
       </c>
       <c r="M6" t="n">
-        <v>161601.7720942043</v>
+        <v>161567.0341687684</v>
       </c>
       <c r="N6" t="n">
-        <v>246656.8000297158</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="O6" t="n">
-        <v>246656.800029716</v>
+        <v>246622.06210428</v>
       </c>
       <c r="P6" t="n">
-        <v>246656.8000297159</v>
+        <v>246622.0621042803</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>227.314948337913</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>68.99387434604603</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>129.6001238593688</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>84.56496481634294</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27585,7 +27585,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,13 +27594,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>381.5869187850909</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>203.2512123885498</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>75.8619392446732</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>53.95634709165651</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1120038611002</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>199.2234520337446</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>86.47315939045677</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>10.67788277566873</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.003898693245978e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>153.9723775119807</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32315,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172127</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
         <v>867.8464071162563</v>
@@ -33023,16 +33023,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,10 +33041,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,16 +33494,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33673,13 +33673,13 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>27.13475084531405</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373385</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295562</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36215,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
         <v>632.079992146269</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,10 +36689,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
